--- a/xlsx/媒体_intext.xlsx
+++ b/xlsx/媒体_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>政策_政策_公共政策_媒体</t>
@@ -35,19 +35,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>傳播媒體</t>
+    <t>传播媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>新聞媒體</t>
+    <t>新闻媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8B%E8%B4%A8</t>

--- a/xlsx/媒体_intext.xlsx
+++ b/xlsx/媒体_intext.xlsx
@@ -29,7 +29,7 @@
     <t>維基詞典</t>
   </si>
   <si>
-    <t>政策_政策_公共政策_媒体</t>
+    <t>体育运动_体育运动_大众媒体_媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AA%92%E9%AB%94</t>
